--- a/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F893"/>
+  <dimension ref="A1:F906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18311,6 +18311,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0.13877</v>
+      </c>
+      <c r="C894" t="n">
+        <v>0.13877</v>
+      </c>
+      <c r="D894" t="n">
+        <v>0.13805</v>
+      </c>
+      <c r="E894" t="n">
+        <v>0.13805</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0.13805</v>
+      </c>
+      <c r="C895" t="n">
+        <v>0.13805</v>
+      </c>
+      <c r="D895" t="n">
+        <v>0.13804</v>
+      </c>
+      <c r="E895" t="n">
+        <v>0.13804</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0.13804</v>
+      </c>
+      <c r="C896" t="n">
+        <v>0.13816</v>
+      </c>
+      <c r="D896" t="n">
+        <v>0.13804</v>
+      </c>
+      <c r="E896" t="n">
+        <v>0.13809</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B897" t="n">
+        <v>0.13809</v>
+      </c>
+      <c r="C897" t="n">
+        <v>0.13809</v>
+      </c>
+      <c r="D897" t="n">
+        <v>0.13793</v>
+      </c>
+      <c r="E897" t="n">
+        <v>0.13793</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B898" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="C898" t="n">
+        <v>0.13801</v>
+      </c>
+      <c r="D898" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="E898" t="n">
+        <v>0.13799</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B899" t="n">
+        <v>0.13799</v>
+      </c>
+      <c r="C899" t="n">
+        <v>0.13806</v>
+      </c>
+      <c r="D899" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B900" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="C900" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="D900" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="E900" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B901" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="C901" t="n">
+        <v>0.13794</v>
+      </c>
+      <c r="D901" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="E901" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B902" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="C902" t="n">
+        <v>0.13923</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="E902" t="n">
+        <v>0.13808</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B903" t="n">
+        <v>0.13809</v>
+      </c>
+      <c r="C903" t="n">
+        <v>0.13811</v>
+      </c>
+      <c r="D903" t="n">
+        <v>0.13785</v>
+      </c>
+      <c r="E903" t="n">
+        <v>0.13785</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B904" t="n">
+        <v>0.13784</v>
+      </c>
+      <c r="C904" t="n">
+        <v>0.13785</v>
+      </c>
+      <c r="D904" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="E904" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="C905" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="D905" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B906" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="C906" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="D906" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="E906" t="n">
+        <v>0.13779</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F906"/>
+  <dimension ref="A1:F949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18571,6 +18571,866 @@
         <v>0</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B907" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="C907" t="n">
+        <v>0.13782</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0.13778</v>
+      </c>
+      <c r="E907" t="n">
+        <v>0.13782</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B908" t="n">
+        <v>0.13782</v>
+      </c>
+      <c r="C908" t="n">
+        <v>0.13783</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0.13775</v>
+      </c>
+      <c r="E908" t="n">
+        <v>0.13775</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0.13775</v>
+      </c>
+      <c r="C909" t="n">
+        <v>0.13775</v>
+      </c>
+      <c r="D909" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B910" t="n">
+        <v>0.1377</v>
+      </c>
+      <c r="C910" t="n">
+        <v>0.13771</v>
+      </c>
+      <c r="D910" t="n">
+        <v>0.13767</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0.13767</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B911" t="n">
+        <v>0.13768</v>
+      </c>
+      <c r="C911" t="n">
+        <v>0.13776</v>
+      </c>
+      <c r="D911" t="n">
+        <v>0.13768</v>
+      </c>
+      <c r="E911" t="n">
+        <v>0.13773</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B912" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="C912" t="n">
+        <v>0.13775</v>
+      </c>
+      <c r="D912" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="E912" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="C913" t="n">
+        <v>0.13766</v>
+      </c>
+      <c r="D913" t="n">
+        <v>0.13761</v>
+      </c>
+      <c r="E913" t="n">
+        <v>0.13761</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0.13761</v>
+      </c>
+      <c r="C914" t="n">
+        <v>0.13762</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="C915" t="n">
+        <v>0.13766</v>
+      </c>
+      <c r="D915" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="E915" t="n">
+        <v>0.13756</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B916" t="n">
+        <v>0.13756</v>
+      </c>
+      <c r="C916" t="n">
+        <v>0.13757</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="C917" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="D917" t="n">
+        <v>0.13749</v>
+      </c>
+      <c r="E917" t="n">
+        <v>0.13749</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B918" t="n">
+        <v>0.13749</v>
+      </c>
+      <c r="C918" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="D918" t="n">
+        <v>0.13749</v>
+      </c>
+      <c r="E918" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B919" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="C919" t="n">
+        <v>0.13757</v>
+      </c>
+      <c r="D919" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="E919" t="n">
+        <v>0.13756</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0.13757</v>
+      </c>
+      <c r="C920" t="n">
+        <v>0.13761</v>
+      </c>
+      <c r="D920" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B921" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="C921" t="n">
+        <v>0.13756</v>
+      </c>
+      <c r="D921" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="E921" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B922" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="C922" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="D922" t="n">
+        <v>0.13746</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0.13746</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B923" t="n">
+        <v>0.13746</v>
+      </c>
+      <c r="C923" t="n">
+        <v>0.13748</v>
+      </c>
+      <c r="D923" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="E923" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B924" t="n">
+        <v>0.13741</v>
+      </c>
+      <c r="C924" t="n">
+        <v>0.13788</v>
+      </c>
+      <c r="D924" t="n">
+        <v>0.13741</v>
+      </c>
+      <c r="E924" t="n">
+        <v>0.13774</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B925" t="n">
+        <v>0.13774</v>
+      </c>
+      <c r="C925" t="n">
+        <v>0.13791</v>
+      </c>
+      <c r="D925" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="E925" t="n">
+        <v>0.13787</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B926" t="n">
+        <v>0.13789</v>
+      </c>
+      <c r="C926" t="n">
+        <v>0.13789</v>
+      </c>
+      <c r="D926" t="n">
+        <v>0.13771</v>
+      </c>
+      <c r="E926" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B927" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="C927" t="n">
+        <v>0.13837</v>
+      </c>
+      <c r="D927" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="E927" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B928" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="C928" t="n">
+        <v>0.13885</v>
+      </c>
+      <c r="D928" t="n">
+        <v>0.13754</v>
+      </c>
+      <c r="E928" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B929" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="C929" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="D929" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="E929" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B930" t="n">
+        <v>0.1377</v>
+      </c>
+      <c r="C930" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="D930" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="E930" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B931" t="n">
+        <v>0.13752</v>
+      </c>
+      <c r="C931" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="D931" t="n">
+        <v>0.13744</v>
+      </c>
+      <c r="E931" t="n">
+        <v>0.13744</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B932" t="n">
+        <v>0.13744</v>
+      </c>
+      <c r="C932" t="n">
+        <v>0.13746</v>
+      </c>
+      <c r="D932" t="n">
+        <v>0.13742</v>
+      </c>
+      <c r="E932" t="n">
+        <v>0.13742</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B933" t="n">
+        <v>0.13742</v>
+      </c>
+      <c r="C933" t="n">
+        <v>0.13766</v>
+      </c>
+      <c r="D933" t="n">
+        <v>0.13742</v>
+      </c>
+      <c r="E933" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B934" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="C934" t="n">
+        <v>0.13865</v>
+      </c>
+      <c r="D934" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="E934" t="n">
+        <v>0.13825</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B935" t="n">
+        <v>0.13825</v>
+      </c>
+      <c r="C935" t="n">
+        <v>0.13825</v>
+      </c>
+      <c r="D935" t="n">
+        <v>0.13789</v>
+      </c>
+      <c r="E935" t="n">
+        <v>0.13789</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B936" t="n">
+        <v>0.13789</v>
+      </c>
+      <c r="C936" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="D936" t="n">
+        <v>0.13771</v>
+      </c>
+      <c r="E936" t="n">
+        <v>0.13771</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B937" t="n">
+        <v>0.13771</v>
+      </c>
+      <c r="C937" t="n">
+        <v>0.13792</v>
+      </c>
+      <c r="D937" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="E937" t="n">
+        <v>0.13787</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B938" t="n">
+        <v>0.13787</v>
+      </c>
+      <c r="C938" t="n">
+        <v>0.13855</v>
+      </c>
+      <c r="D938" t="n">
+        <v>0.13787</v>
+      </c>
+      <c r="E938" t="n">
+        <v>0.13848</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B939" t="n">
+        <v>0.13846</v>
+      </c>
+      <c r="C939" t="n">
+        <v>0.13864</v>
+      </c>
+      <c r="D939" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="E939" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B940" t="n">
+        <v>0.13802</v>
+      </c>
+      <c r="C940" t="n">
+        <v>0.1397</v>
+      </c>
+      <c r="D940" t="n">
+        <v>0.13802</v>
+      </c>
+      <c r="E940" t="n">
+        <v>0.13962</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B941" t="n">
+        <v>0.13962</v>
+      </c>
+      <c r="C941" t="n">
+        <v>0.14135</v>
+      </c>
+      <c r="D941" t="n">
+        <v>0.13962</v>
+      </c>
+      <c r="E941" t="n">
+        <v>0.14021</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B942" t="n">
+        <v>0.14021</v>
+      </c>
+      <c r="C942" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="D942" t="n">
+        <v>0.1397</v>
+      </c>
+      <c r="E942" t="n">
+        <v>0.1397</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B943" t="n">
+        <v>0.1397</v>
+      </c>
+      <c r="C943" t="n">
+        <v>0.14024</v>
+      </c>
+      <c r="D943" t="n">
+        <v>0.13919</v>
+      </c>
+      <c r="E943" t="n">
+        <v>0.13931</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B944" t="n">
+        <v>0.13931</v>
+      </c>
+      <c r="C944" t="n">
+        <v>0.13969</v>
+      </c>
+      <c r="D944" t="n">
+        <v>0.13931</v>
+      </c>
+      <c r="E944" t="n">
+        <v>0.13934</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B945" t="n">
+        <v>0.13934</v>
+      </c>
+      <c r="C945" t="n">
+        <v>0.13963</v>
+      </c>
+      <c r="D945" t="n">
+        <v>0.13934</v>
+      </c>
+      <c r="E945" t="n">
+        <v>0.13951</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B946" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="C946" t="n">
+        <v>0.13994</v>
+      </c>
+      <c r="D946" t="n">
+        <v>0.13927</v>
+      </c>
+      <c r="E946" t="n">
+        <v>0.13932</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B947" t="n">
+        <v>0.13934</v>
+      </c>
+      <c r="C947" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D947" t="n">
+        <v>0.13927</v>
+      </c>
+      <c r="E947" t="n">
+        <v>0.13972</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B948" t="n">
+        <v>0.14048</v>
+      </c>
+      <c r="C948" t="n">
+        <v>0.14051</v>
+      </c>
+      <c r="D948" t="n">
+        <v>0.13983</v>
+      </c>
+      <c r="E948" t="n">
+        <v>0.14008</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B949" t="n">
+        <v>0.14007</v>
+      </c>
+      <c r="C949" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="D949" t="n">
+        <v>0.13964</v>
+      </c>
+      <c r="E949" t="n">
+        <v>0.13978</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F949"/>
+  <dimension ref="A1:F951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19431,6 +19431,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B950" t="n">
+        <v>0.14007</v>
+      </c>
+      <c r="C950" t="n">
+        <v>0.14035</v>
+      </c>
+      <c r="D950" t="n">
+        <v>0.13941</v>
+      </c>
+      <c r="E950" t="n">
+        <v>0.13972</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B951" t="n">
+        <v>0.13972</v>
+      </c>
+      <c r="C951" t="n">
+        <v>0.13983</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0.13934</v>
+      </c>
+      <c r="E951" t="n">
+        <v>0.13954</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/User_Data/GlobalReserves/FXData/CNYUSD.xlsx
@@ -18565,7 +18565,7 @@
         <v>0.14103</v>
       </c>
       <c r="E906" t="n">
-        <v>0.14148</v>
+        <v>0.14147</v>
       </c>
       <c r="F906" t="n">
         <v>0</v>
@@ -36665,7 +36665,7 @@
         <v>0.14103</v>
       </c>
       <c r="E1811" t="n">
-        <v>0.14148</v>
+        <v>0.14147</v>
       </c>
       <c r="F1811" t="n">
         <v>0</v>
